--- a/R/analysis/data/Pt_22_Experimental.xlsx
+++ b/R/analysis/data/Pt_22_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>1.26</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.25</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -575,10 +575,10 @@
         <v>2.23</v>
       </c>
       <c r="K3" t="n">
-        <v>2.71</v>
+        <v>1.52</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.83</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>0.71</v>
@@ -635,16 +635,16 @@
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>5.01</v>
+        <v>0.53</v>
       </c>
       <c r="L4" t="n">
-        <v>0.71</v>
+        <v>3.88</v>
       </c>
       <c r="M4" t="n">
-        <v>4.07</v>
+        <v>0.53</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.38</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -701,10 +701,10 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.58</v>
+        <v>0.84</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O5" t="n">
         <v>0.35</v>
@@ -758,7 +758,7 @@
         <v>0.75</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.83</v>
+        <v>2.83</v>
       </c>
       <c r="M6" t="n">
         <v>1.41</v>
@@ -815,16 +815,16 @@
         <v>2.94</v>
       </c>
       <c r="K7" t="n">
-        <v>3.42</v>
+        <v>0.59</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.42</v>
+        <v>2.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.41</v>
+        <v>0.57</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -881,10 +881,10 @@
         <v>2.25</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42</v>
+        <v>1.91</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
         <v>0.46</v>
@@ -937,10 +937,10 @@
         <v>1.45</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>0.82</v>
       </c>
       <c r="L9" t="n">
-        <v>-2</v>
+        <v>2.67</v>
       </c>
       <c r="M9" t="n">
         <v>0.71</v>
@@ -997,16 +997,16 @@
         <v>1.74</v>
       </c>
       <c r="K10" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0.12</v>
+        <v>2.46</v>
       </c>
       <c r="M10" t="n">
-        <v>1.41</v>
+        <v>0.71</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0.18</v>
@@ -1116,7 +1116,7 @@
         <v>2.32</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M12" t="n">
         <v>2.12</v>
@@ -1173,10 +1173,10 @@
         <v>2.02</v>
       </c>
       <c r="K13" t="n">
-        <v>6.34</v>
+        <v>0.93</v>
       </c>
       <c r="L13" t="n">
-        <v>0.65</v>
+        <v>4.48</v>
       </c>
       <c r="M13" t="n">
         <v>2.47</v>
@@ -1292,7 +1292,7 @@
         <v>1.71</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.41</v>
@@ -1347,10 +1347,10 @@
         <v>2.14</v>
       </c>
       <c r="K16" t="n">
-        <v>6.46</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
-        <v>0.31</v>
+        <v>4.56</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>1.3</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1521,16 +1521,16 @@
         <v>3.38</v>
       </c>
       <c r="K19" t="n">
-        <v>5.52</v>
+        <v>0.14</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="M19" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0.71</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.51</v>
@@ -1697,16 +1697,16 @@
         <v>3.41</v>
       </c>
       <c r="K22" t="n">
-        <v>6.92</v>
+        <v>0.86</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.6</v>
+        <v>4.89</v>
       </c>
       <c r="M22" t="n">
-        <v>3.77</v>
+        <v>0.94</v>
       </c>
       <c r="N22" t="n">
-        <v>0.66</v>
+        <v>2.66</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>1.72</v>
@@ -1873,16 +1873,16 @@
         <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
-        <v>3.84</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0.72</v>
+        <v>2.71</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>1.18</v>
       </c>
       <c r="K27" t="n">
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.6</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>0.58</v>
@@ -2049,16 +2049,16 @@
         <v>0.92</v>
       </c>
       <c r="K28" t="n">
-        <v>3.56</v>
+        <v>1.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.92</v>
+        <v>2.71</v>
       </c>
       <c r="M28" t="n">
-        <v>2.6</v>
+        <v>1.18</v>
       </c>
       <c r="N28" t="n">
-        <v>0.84</v>
+        <v>1.83</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
